--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H100_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5465838509316771</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.946236559139785</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6929133858267715</v>
+        <v>0.7052023121387284</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4523809523809524</v>
+        <v>0.4940476190476191</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1097954277624018</v>
+        <v>0.09936692704850089</v>
       </c>
       <c r="J2" t="n">
-        <v>1468.386864148194</v>
+        <v>1338.211075144722</v>
       </c>
       <c r="K2" t="n">
-        <v>3252415.175761445</v>
+        <v>2642527.056226144</v>
       </c>
       <c r="L2" t="n">
-        <v>1803.445362566176</v>
+        <v>1625.585142718198</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4006185694476442</v>
+        <v>0.5130136954722213</v>
       </c>
     </row>
   </sheetData>
